--- a/shiny/data/Consultant/eka-20220302T101542Z-001/eka/2013_Jayapura_Cleaned/MONOKULTUR_KELAPA SAWIT_PAPUA_2013_MINERAL.xlsx
+++ b/shiny/data/Consultant/eka-20220302T101542Z-001/eka/2013_Jayapura_Cleaned/MONOKULTUR_KELAPA SAWIT_PAPUA_2013_MINERAL.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICRAF\Lusita for cosam\CEK\2013\2013_Jayapura\2013_Jayapura_Cleaned\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D66985C-3075-4258-B77B-96EF90FF6D78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25B12AAD-91D2-4200-A6DD-6CBFA0FC2489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-170" yWindow="340" windowWidth="10260" windowHeight="8790"/>
+    <workbookView xWindow="2570" yWindow="90" windowWidth="13980" windowHeight="8790"/>
   </bookViews>
   <sheets>
-    <sheet name="MONOKULTUR_KELAPA SAWIT_PAPUA B" sheetId="1" r:id="rId1"/>
+    <sheet name="MONOKULTUR_KELAPA SAWIT_PAPUA_2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="110">
   <si>
     <t>sut</t>
   </si>
@@ -178,7 +178,10 @@
     <t>MONOKULTUR</t>
   </si>
   <si>
-    <t>KELAPA SAWIT</t>
+    <t>PAPUA</t>
+  </si>
+  <si>
+    <t>ARSO</t>
   </si>
   <si>
     <t>MINERAL</t>
@@ -289,12 +292,6 @@
     <t>tenaga kerja sawit</t>
   </si>
   <si>
-    <t>Pembuatan lubang + pagar</t>
-  </si>
-  <si>
-    <t>Tanam</t>
-  </si>
-  <si>
     <t>tk pemeliharaan sawit</t>
   </si>
   <si>
@@ -322,32 +319,47 @@
     <t>output</t>
   </si>
   <si>
-    <t>Beras</t>
-  </si>
-  <si>
     <t>utama</t>
   </si>
   <si>
     <t>FFB</t>
   </si>
   <si>
-    <t>ARSO</t>
-  </si>
-  <si>
-    <t>PAPUA</t>
-  </si>
-  <si>
-    <t>Jayapura</t>
-  </si>
-  <si>
-    <t>Padi/Gabah</t>
+    <t>KELAPA SAWIT_swamp</t>
+  </si>
+  <si>
+    <t>Dolomit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembuatan lubang </t>
+  </si>
+  <si>
+    <t>tk parit induk</t>
+  </si>
+  <si>
+    <t>tk parit cating</t>
+  </si>
+  <si>
+    <t>Parit Induk</t>
+  </si>
+  <si>
+    <t>Parit Cacing</t>
+  </si>
+  <si>
+    <t>Pemeliharaan parit</t>
+  </si>
+  <si>
+    <t>Jagung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,6 +494,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -780,7 +797,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -823,12 +840,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -856,6 +874,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma 2" xfId="42"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -1182,14 +1201,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY21"/>
+  <dimension ref="A1:AY24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20:AY21"/>
+    <sheetView tabSelected="1" topLeftCell="N13" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23.36328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1354,55 +1375,55 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
-        <v>104</v>
-      </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="F2">
         <v>2013</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K2">
-        <v>11830</v>
+        <v>10337</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" t="s">
         <v>59</v>
       </c>
-      <c r="P2" t="s">
-        <v>58</v>
-      </c>
       <c r="Q2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S2">
         <v>1500</v>
@@ -1411,67 +1432,67 @@
         <v>2000</v>
       </c>
       <c r="U2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V2">
-        <v>199.8</v>
+        <v>70</v>
       </c>
       <c r="W2">
-        <v>199.8</v>
+        <v>70</v>
       </c>
       <c r="X2">
-        <v>199.8</v>
+        <v>70</v>
       </c>
       <c r="Y2">
-        <v>199.8</v>
+        <v>70</v>
       </c>
       <c r="Z2">
-        <v>199.8</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>499.5</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>499.5</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>499.5</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>499.5</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>499.5</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1000.35</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="1">
-        <v>1000.35</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="1">
-        <v>1000.35</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="1">
-        <v>1000.35</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>1000.35</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="1">
-        <v>1000.35</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="1">
-        <v>1000.35</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="1">
-        <v>1000.35</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="1">
-        <v>1000.35</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>1000.35</v>
+        <v>0</v>
       </c>
       <c r="AP2">
         <v>0</v>
@@ -1506,22 +1527,22 @@
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.35">
       <c r="M3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s">
         <v>59</v>
       </c>
-      <c r="P3" t="s">
-        <v>58</v>
-      </c>
       <c r="Q3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S3">
         <v>3000</v>
@@ -1530,426 +1551,486 @@
         <v>4000</v>
       </c>
       <c r="U3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V3">
-        <v>399.6</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>399.6</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>399.6</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>399.6</v>
+        <v>70</v>
       </c>
       <c r="Z3">
-        <v>399.6</v>
+        <v>70</v>
       </c>
       <c r="AA3">
-        <v>499.5</v>
+        <v>105</v>
       </c>
       <c r="AB3">
-        <v>499.5</v>
+        <v>105</v>
       </c>
       <c r="AC3">
-        <v>499.5</v>
+        <v>140</v>
       </c>
       <c r="AD3">
-        <v>499.5</v>
+        <v>140</v>
       </c>
       <c r="AE3">
-        <v>499.5</v>
+        <v>140</v>
       </c>
       <c r="AF3">
-        <v>1000.35</v>
+        <v>140</v>
       </c>
       <c r="AG3" s="1">
-        <v>1000.35</v>
+        <v>140</v>
       </c>
       <c r="AH3" s="1">
-        <v>1000.35</v>
+        <v>140</v>
       </c>
       <c r="AI3" s="1">
-        <v>1000.35</v>
+        <v>140</v>
       </c>
       <c r="AJ3" s="1">
-        <v>1000.35</v>
+        <v>140</v>
       </c>
       <c r="AK3" s="1">
-        <v>1000.35</v>
+        <v>140</v>
       </c>
       <c r="AL3" s="1">
-        <v>1000.35</v>
+        <v>140</v>
       </c>
       <c r="AM3" s="1">
-        <v>1000.35</v>
+        <v>140</v>
       </c>
       <c r="AN3" s="1">
-        <v>1000.35</v>
+        <v>140</v>
       </c>
       <c r="AO3" s="1">
-        <v>1000.35</v>
+        <v>140</v>
       </c>
       <c r="AP3">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="AQ3">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="AR3">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="AS3">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="AT3">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="AU3">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="AV3">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="AW3">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="AX3">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="AY3">
-        <v>270</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="M4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s">
         <v>59</v>
       </c>
-      <c r="P4" t="s">
-        <v>66</v>
-      </c>
       <c r="Q4" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="R4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="S4">
-        <v>80000</v>
+        <v>350</v>
       </c>
       <c r="T4">
-        <v>80000</v>
+        <v>350</v>
       </c>
       <c r="U4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="Z4">
-        <v>0.5</v>
+        <v>280</v>
       </c>
       <c r="AA4">
-        <v>0.5</v>
+        <v>280</v>
       </c>
       <c r="AB4">
-        <v>0.5</v>
+        <v>280</v>
       </c>
       <c r="AC4">
-        <v>0.5</v>
+        <v>420</v>
       </c>
       <c r="AD4">
-        <v>0.5</v>
+        <v>420</v>
       </c>
       <c r="AE4">
-        <v>0.5</v>
+        <v>420</v>
       </c>
       <c r="AF4">
-        <v>0.5</v>
-      </c>
-      <c r="AG4">
-        <v>0.5</v>
-      </c>
-      <c r="AH4">
-        <v>0.5</v>
-      </c>
-      <c r="AI4">
-        <v>0.5</v>
-      </c>
-      <c r="AJ4">
-        <v>0.5</v>
-      </c>
-      <c r="AK4">
-        <v>0.5</v>
-      </c>
-      <c r="AL4">
-        <v>0.5</v>
-      </c>
-      <c r="AM4">
-        <v>0.5</v>
-      </c>
-      <c r="AN4">
-        <v>0.5</v>
-      </c>
-      <c r="AO4">
-        <v>0.5</v>
+        <v>420</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>420</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>420</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>420</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>420</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>420</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>420</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>420</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>420</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>420</v>
       </c>
       <c r="AP4">
-        <v>0.5</v>
+        <v>420</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>420</v>
       </c>
       <c r="AR4">
-        <v>0.5</v>
+        <v>420</v>
       </c>
       <c r="AS4">
-        <v>0.5</v>
+        <v>420</v>
       </c>
       <c r="AT4">
-        <v>0.5</v>
+        <v>420</v>
       </c>
       <c r="AU4">
-        <v>0.5</v>
+        <v>420</v>
       </c>
       <c r="AV4">
-        <v>0.5</v>
+        <v>420</v>
       </c>
       <c r="AW4">
-        <v>0.5</v>
+        <v>420</v>
       </c>
       <c r="AX4">
-        <v>0.5</v>
+        <v>420</v>
       </c>
       <c r="AY4">
-        <v>0.5</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5">
+        <v>80000</v>
+      </c>
+      <c r="T5">
+        <v>80000</v>
+      </c>
+      <c r="U5" t="s">
         <v>70</v>
       </c>
-      <c r="O5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>106</v>
-      </c>
-      <c r="R5" t="s">
-        <v>61</v>
-      </c>
-      <c r="S5">
-        <v>4000</v>
-      </c>
-      <c r="T5">
-        <v>4000</v>
-      </c>
-      <c r="U5" t="s">
-        <v>62</v>
-      </c>
       <c r="V5">
-        <v>70</v>
+        <v>8</v>
+      </c>
+      <c r="W5">
+        <v>8</v>
+      </c>
+      <c r="X5">
+        <v>8</v>
+      </c>
+      <c r="Y5">
+        <v>8</v>
+      </c>
+      <c r="Z5">
+        <v>8</v>
+      </c>
+      <c r="AA5">
+        <v>4</v>
+      </c>
+      <c r="AB5">
+        <v>4</v>
+      </c>
+      <c r="AC5">
+        <v>4</v>
+      </c>
+      <c r="AD5">
+        <v>4</v>
+      </c>
+      <c r="AE5">
+        <v>4</v>
+      </c>
+      <c r="AF5">
+        <v>4</v>
+      </c>
+      <c r="AG5">
+        <v>4</v>
+      </c>
+      <c r="AH5">
+        <v>4</v>
+      </c>
+      <c r="AI5">
+        <v>4</v>
+      </c>
+      <c r="AJ5">
+        <v>4</v>
+      </c>
+      <c r="AK5">
+        <v>4</v>
+      </c>
+      <c r="AL5">
+        <v>4</v>
+      </c>
+      <c r="AM5">
+        <v>4</v>
+      </c>
+      <c r="AN5">
+        <v>4</v>
+      </c>
+      <c r="AO5">
+        <v>4</v>
+      </c>
+      <c r="AP5">
+        <v>4</v>
+      </c>
+      <c r="AQ5">
+        <v>4</v>
+      </c>
+      <c r="AR5">
+        <v>4</v>
+      </c>
+      <c r="AS5">
+        <v>4</v>
+      </c>
+      <c r="AT5">
+        <v>4</v>
+      </c>
+      <c r="AU5">
+        <v>4</v>
+      </c>
+      <c r="AV5">
+        <v>4</v>
+      </c>
+      <c r="AW5">
+        <v>4</v>
+      </c>
+      <c r="AX5">
+        <v>4</v>
+      </c>
+      <c r="AY5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.35">
       <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R6" t="s">
+        <v>73</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>74</v>
+      </c>
+      <c r="V6">
         <v>70</v>
-      </c>
-      <c r="O6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>71</v>
-      </c>
-      <c r="R6" t="s">
-        <v>72</v>
-      </c>
-      <c r="S6">
-        <v>15000</v>
-      </c>
-      <c r="T6">
-        <v>15000</v>
-      </c>
-      <c r="U6" t="s">
-        <v>73</v>
-      </c>
-      <c r="V6">
-        <v>135</v>
-      </c>
-      <c r="W6">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" t="s">
+        <v>73</v>
+      </c>
+      <c r="S7">
+        <v>15000</v>
+      </c>
+      <c r="T7">
+        <v>15000</v>
+      </c>
+      <c r="U7" t="s">
         <v>74</v>
       </c>
-      <c r="O7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>75</v>
-      </c>
-      <c r="R7" t="s">
-        <v>76</v>
-      </c>
-      <c r="S7">
-        <v>150000</v>
-      </c>
-      <c r="T7">
-        <v>150000</v>
-      </c>
-      <c r="U7" t="s">
-        <v>77</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
+      <c r="V7">
+        <v>135</v>
+      </c>
+      <c r="W7">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="N8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8">
+        <v>150000</v>
+      </c>
+      <c r="T8">
+        <v>150000</v>
+      </c>
+      <c r="U8" t="s">
         <v>78</v>
       </c>
-      <c r="R8" t="s">
-        <v>76</v>
-      </c>
-      <c r="S8">
-        <v>225000</v>
-      </c>
-      <c r="T8">
-        <v>225000</v>
-      </c>
-      <c r="U8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA8">
-        <v>1</v>
-      </c>
-      <c r="AC8">
-        <v>1</v>
-      </c>
-      <c r="AE8">
-        <v>1</v>
-      </c>
-      <c r="AG8">
-        <v>1</v>
-      </c>
-      <c r="AI8">
-        <v>1</v>
-      </c>
-      <c r="AK8">
-        <v>1</v>
-      </c>
-      <c r="AM8">
-        <v>1</v>
-      </c>
-      <c r="AO8">
-        <v>1</v>
-      </c>
-      <c r="AQ8">
-        <v>1</v>
-      </c>
-      <c r="AS8">
-        <v>1</v>
-      </c>
-      <c r="AU8">
-        <v>1</v>
-      </c>
-      <c r="AW8">
-        <v>1</v>
-      </c>
-      <c r="AY8">
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.35">
       <c r="N9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q9" t="s">
         <v>79</v>
       </c>
       <c r="R9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9">
-        <v>300000</v>
+        <v>225000</v>
       </c>
       <c r="T9">
-        <v>300000</v>
+        <v>225000</v>
       </c>
       <c r="U9" t="s">
-        <v>77</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="AA9">
         <v>1</v>
       </c>
-      <c r="AD9">
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
         <v>1</v>
       </c>
       <c r="AG9">
         <v>1</v>
       </c>
-      <c r="AJ9">
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
         <v>1</v>
       </c>
       <c r="AM9">
         <v>1</v>
       </c>
-      <c r="AP9">
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
         <v>1</v>
       </c>
       <c r="AS9">
         <v>1</v>
       </c>
-      <c r="AV9">
+      <c r="AU9">
+        <v>1</v>
+      </c>
+      <c r="AW9">
         <v>1</v>
       </c>
       <c r="AY9">
@@ -1958,45 +2039,54 @@
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.35">
       <c r="N10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q10" t="s">
         <v>80</v>
       </c>
       <c r="R10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S10">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="T10">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="U10" t="s">
-        <v>77</v>
-      </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AE10">
+        <v>78</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
         <v>1</v>
       </c>
       <c r="AJ10">
         <v>1</v>
       </c>
-      <c r="AO10">
-        <v>1</v>
-      </c>
-      <c r="AT10">
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AV10">
         <v>1</v>
       </c>
       <c r="AY10">
@@ -2005,119 +2095,137 @@
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.35">
       <c r="N11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q11" t="s">
         <v>81</v>
       </c>
       <c r="R11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11">
-        <v>50000</v>
+        <v>250000</v>
       </c>
       <c r="T11">
-        <v>50000</v>
+        <v>250000</v>
       </c>
       <c r="U11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V11">
         <v>1</v>
       </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
       <c r="Z11">
         <v>1</v>
       </c>
-      <c r="AB11">
-        <v>1</v>
-      </c>
-      <c r="AD11">
-        <v>1</v>
-      </c>
-      <c r="AF11">
-        <v>1</v>
-      </c>
-      <c r="AH11">
+      <c r="AE11">
         <v>1</v>
       </c>
       <c r="AJ11">
         <v>1</v>
       </c>
-      <c r="AL11">
-        <v>1</v>
-      </c>
-      <c r="AN11">
-        <v>1</v>
-      </c>
-      <c r="AP11">
-        <v>1</v>
-      </c>
-      <c r="AR11">
+      <c r="AO11">
         <v>1</v>
       </c>
       <c r="AT11">
         <v>1</v>
       </c>
-      <c r="AV11">
-        <v>1</v>
-      </c>
-      <c r="AX11">
+      <c r="AY11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.35">
       <c r="N12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" t="s">
         <v>82</v>
       </c>
-      <c r="O12" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>84</v>
-      </c>
       <c r="R12" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="S12">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="T12">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="U12" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="V12">
-        <v>133</v>
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.35">
       <c r="N13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="R13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S13">
         <v>75000</v>
@@ -2126,172 +2234,79 @@
         <v>75000</v>
       </c>
       <c r="U13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V13">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.35">
       <c r="N14" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q14" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="R14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S14">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="T14">
-        <v>75000</v>
-      </c>
-      <c r="U14" t="s">
-        <v>86</v>
+        <v>100000</v>
       </c>
       <c r="V14">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.35">
       <c r="N15" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q15" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="R15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S15">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="T15">
-        <v>75000</v>
-      </c>
-      <c r="U15" t="s">
-        <v>86</v>
+        <v>100000</v>
       </c>
       <c r="V15">
-        <v>12</v>
-      </c>
-      <c r="W15">
-        <v>12</v>
-      </c>
-      <c r="X15">
-        <v>12</v>
-      </c>
-      <c r="Y15">
-        <v>12</v>
-      </c>
-      <c r="Z15">
-        <v>12</v>
-      </c>
-      <c r="AA15">
-        <v>12</v>
-      </c>
-      <c r="AB15">
-        <v>12</v>
-      </c>
-      <c r="AC15">
-        <v>12</v>
-      </c>
-      <c r="AD15">
-        <v>12</v>
-      </c>
-      <c r="AE15">
-        <v>12</v>
-      </c>
-      <c r="AF15">
-        <v>12</v>
-      </c>
-      <c r="AG15">
-        <v>12</v>
-      </c>
-      <c r="AH15">
-        <v>12</v>
-      </c>
-      <c r="AI15">
-        <v>12</v>
-      </c>
-      <c r="AJ15">
-        <v>12</v>
-      </c>
-      <c r="AK15">
-        <v>12</v>
-      </c>
-      <c r="AL15">
-        <v>12</v>
-      </c>
-      <c r="AM15">
-        <v>12</v>
-      </c>
-      <c r="AN15">
-        <v>12</v>
-      </c>
-      <c r="AO15">
-        <v>12</v>
-      </c>
-      <c r="AP15">
-        <v>12</v>
-      </c>
-      <c r="AQ15">
-        <v>12</v>
-      </c>
-      <c r="AR15">
-        <v>12</v>
-      </c>
-      <c r="AS15">
-        <v>12</v>
-      </c>
-      <c r="AT15">
-        <v>12</v>
-      </c>
-      <c r="AU15">
-        <v>12</v>
-      </c>
-      <c r="AV15">
-        <v>12</v>
-      </c>
-      <c r="AW15">
-        <v>12</v>
-      </c>
-      <c r="AX15">
-        <v>12</v>
-      </c>
-      <c r="AY15">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.35">
       <c r="N16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q16" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="R16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S16">
         <v>75000</v>
@@ -2300,108 +2315,27 @@
         <v>75000</v>
       </c>
       <c r="U16" t="s">
-        <v>86</v>
-      </c>
-      <c r="X16">
-        <v>14</v>
-      </c>
-      <c r="Y16">
-        <v>14</v>
-      </c>
-      <c r="Z16">
-        <v>14</v>
-      </c>
-      <c r="AA16">
-        <v>14</v>
-      </c>
-      <c r="AB16">
-        <v>14</v>
-      </c>
-      <c r="AC16">
-        <v>14</v>
-      </c>
-      <c r="AD16">
-        <v>14</v>
-      </c>
-      <c r="AE16">
-        <v>14</v>
-      </c>
-      <c r="AF16">
-        <v>14</v>
-      </c>
-      <c r="AG16">
-        <v>14</v>
-      </c>
-      <c r="AH16">
-        <v>14</v>
-      </c>
-      <c r="AI16">
-        <v>14</v>
-      </c>
-      <c r="AJ16">
-        <v>14</v>
-      </c>
-      <c r="AK16">
-        <v>14</v>
-      </c>
-      <c r="AL16">
-        <v>14</v>
-      </c>
-      <c r="AM16">
-        <v>14</v>
-      </c>
-      <c r="AN16">
-        <v>14</v>
-      </c>
-      <c r="AO16">
-        <v>14</v>
-      </c>
-      <c r="AP16">
-        <v>14</v>
-      </c>
-      <c r="AQ16">
-        <v>14</v>
-      </c>
-      <c r="AR16">
-        <v>14</v>
-      </c>
-      <c r="AS16">
-        <v>14</v>
-      </c>
-      <c r="AT16">
-        <v>14</v>
-      </c>
-      <c r="AU16">
-        <v>14</v>
-      </c>
-      <c r="AV16">
-        <v>14</v>
-      </c>
-      <c r="AW16">
-        <v>14</v>
-      </c>
-      <c r="AX16">
-        <v>14</v>
-      </c>
-      <c r="AY16">
-        <v>14</v>
+        <v>87</v>
+      </c>
+      <c r="V16">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="14:51" x14ac:dyDescent="0.35">
       <c r="N17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q17" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="R17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S17">
         <v>75000</v>
@@ -2410,114 +2344,111 @@
         <v>75000</v>
       </c>
       <c r="U17" t="s">
-        <v>86</v>
-      </c>
-      <c r="V17">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="W17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AA17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AC17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AD17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AF17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AG17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AH17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AI17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AJ17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AK17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AL17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AM17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AO17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AR17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AT17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AU17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AX17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AY17">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="14:51" x14ac:dyDescent="0.35">
       <c r="N18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q18" t="s">
         <v>91</v>
       </c>
-      <c r="O18" t="s">
-        <v>59</v>
-      </c>
-      <c r="P18" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>95</v>
-      </c>
       <c r="R18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S18">
         <v>75000</v>
@@ -2526,352 +2457,688 @@
         <v>75000</v>
       </c>
       <c r="U18" t="s">
-        <v>86</v>
-      </c>
-      <c r="V18">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="W18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="X18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Y18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Z18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AA18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AB18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AC18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AD18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AF18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AG18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AH18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AI18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AK18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AL18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AM18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AN18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AO18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AP18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AQ18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AR18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AS18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AT18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AU18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AV18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AW18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AX18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AY18">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="14:51" x14ac:dyDescent="0.35">
       <c r="N19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S19">
-        <v>120000</v>
+        <v>75000</v>
       </c>
       <c r="T19">
-        <v>120000</v>
+        <v>75000</v>
       </c>
       <c r="U19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X19">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Y19">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Z19">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AA19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AB19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AC19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AD19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AE19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AF19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AG19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AH19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AI19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AJ19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AK19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AL19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AM19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AN19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AO19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AP19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AQ19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AR19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AS19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AT19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AU19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AV19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AW19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AX19">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AY19">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="14:51" x14ac:dyDescent="0.35">
       <c r="N20" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="O20" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="P20" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Q20" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="R20" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="S20">
-        <v>6000</v>
+        <v>75000</v>
       </c>
       <c r="T20">
-        <v>6000</v>
+        <v>75000</v>
       </c>
       <c r="U20" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="W20">
+        <v>4</v>
+      </c>
+      <c r="X20">
+        <v>4</v>
+      </c>
+      <c r="Y20">
+        <v>4</v>
+      </c>
+      <c r="Z20">
+        <v>2</v>
+      </c>
+      <c r="AA20">
+        <v>2</v>
+      </c>
+      <c r="AB20">
+        <v>2</v>
+      </c>
+      <c r="AC20">
+        <v>2</v>
+      </c>
+      <c r="AD20">
+        <v>2</v>
+      </c>
+      <c r="AE20">
+        <v>2</v>
+      </c>
+      <c r="AF20">
+        <v>2</v>
+      </c>
+      <c r="AG20">
+        <v>2</v>
+      </c>
+      <c r="AH20">
+        <v>2</v>
+      </c>
+      <c r="AI20">
+        <v>2</v>
+      </c>
+      <c r="AJ20">
+        <v>2</v>
+      </c>
+      <c r="AK20">
+        <v>2</v>
+      </c>
+      <c r="AL20">
+        <v>2</v>
+      </c>
+      <c r="AM20">
+        <v>2</v>
+      </c>
+      <c r="AN20">
+        <v>2</v>
+      </c>
+      <c r="AO20">
+        <v>2</v>
+      </c>
+      <c r="AP20">
+        <v>2</v>
+      </c>
+      <c r="AQ20">
+        <v>2</v>
+      </c>
+      <c r="AR20">
+        <v>2</v>
+      </c>
+      <c r="AS20">
+        <v>2</v>
+      </c>
+      <c r="AT20">
+        <v>2</v>
+      </c>
+      <c r="AU20">
+        <v>2</v>
+      </c>
+      <c r="AV20">
+        <v>2</v>
+      </c>
+      <c r="AW20">
+        <v>2</v>
+      </c>
+      <c r="AX20">
+        <v>2</v>
+      </c>
+      <c r="AY20">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="14:51" x14ac:dyDescent="0.35">
       <c r="N21" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>94</v>
+      </c>
+      <c r="R21" t="s">
+        <v>86</v>
+      </c>
+      <c r="S21">
+        <v>75000</v>
+      </c>
+      <c r="T21">
+        <v>75000</v>
+      </c>
+      <c r="U21" t="s">
+        <v>87</v>
+      </c>
+      <c r="V21">
+        <v>6</v>
+      </c>
+      <c r="W21">
+        <v>6</v>
+      </c>
+      <c r="X21">
+        <v>6</v>
+      </c>
+      <c r="Y21">
+        <v>6</v>
+      </c>
+      <c r="Z21">
+        <v>6</v>
+      </c>
+      <c r="AA21">
+        <v>6</v>
+      </c>
+      <c r="AB21">
+        <v>6</v>
+      </c>
+      <c r="AC21">
+        <v>6</v>
+      </c>
+      <c r="AD21">
+        <v>6</v>
+      </c>
+      <c r="AE21">
+        <v>6</v>
+      </c>
+      <c r="AF21">
+        <v>6</v>
+      </c>
+      <c r="AG21">
+        <v>6</v>
+      </c>
+      <c r="AH21">
+        <v>6</v>
+      </c>
+      <c r="AI21">
+        <v>6</v>
+      </c>
+      <c r="AJ21">
+        <v>6</v>
+      </c>
+      <c r="AK21">
+        <v>6</v>
+      </c>
+      <c r="AL21">
+        <v>6</v>
+      </c>
+      <c r="AM21">
+        <v>6</v>
+      </c>
+      <c r="AN21">
+        <v>6</v>
+      </c>
+      <c r="AO21">
+        <v>6</v>
+      </c>
+      <c r="AP21">
+        <v>6</v>
+      </c>
+      <c r="AQ21">
+        <v>6</v>
+      </c>
+      <c r="AR21">
+        <v>6</v>
+      </c>
+      <c r="AS21">
+        <v>6</v>
+      </c>
+      <c r="AT21">
+        <v>6</v>
+      </c>
+      <c r="AU21">
+        <v>6</v>
+      </c>
+      <c r="AV21">
+        <v>6</v>
+      </c>
+      <c r="AW21">
+        <v>6</v>
+      </c>
+      <c r="AX21">
+        <v>6</v>
+      </c>
+      <c r="AY21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="14:51" x14ac:dyDescent="0.35">
+      <c r="N22" t="s">
+        <v>95</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>96</v>
+      </c>
+      <c r="R22" t="s">
+        <v>86</v>
+      </c>
+      <c r="S22">
+        <v>120000</v>
+      </c>
+      <c r="T22">
+        <v>120000</v>
+      </c>
+      <c r="U22" t="s">
+        <v>87</v>
+      </c>
+      <c r="X22">
+        <v>24</v>
+      </c>
+      <c r="Y22">
+        <v>24</v>
+      </c>
+      <c r="Z22">
+        <v>24</v>
+      </c>
+      <c r="AA22">
+        <v>48</v>
+      </c>
+      <c r="AB22">
+        <v>48</v>
+      </c>
+      <c r="AC22">
+        <v>48</v>
+      </c>
+      <c r="AD22">
+        <v>48</v>
+      </c>
+      <c r="AE22">
+        <v>48</v>
+      </c>
+      <c r="AF22">
+        <v>48</v>
+      </c>
+      <c r="AG22">
+        <v>48</v>
+      </c>
+      <c r="AH22">
+        <v>48</v>
+      </c>
+      <c r="AI22">
+        <v>48</v>
+      </c>
+      <c r="AJ22">
+        <v>48</v>
+      </c>
+      <c r="AK22">
+        <v>48</v>
+      </c>
+      <c r="AL22">
+        <v>48</v>
+      </c>
+      <c r="AM22">
+        <v>48</v>
+      </c>
+      <c r="AN22">
+        <v>48</v>
+      </c>
+      <c r="AO22">
+        <v>48</v>
+      </c>
+      <c r="AP22">
+        <v>48</v>
+      </c>
+      <c r="AQ22">
+        <v>48</v>
+      </c>
+      <c r="AR22">
+        <v>48</v>
+      </c>
+      <c r="AS22">
+        <v>48</v>
+      </c>
+      <c r="AT22">
+        <v>48</v>
+      </c>
+      <c r="AU22">
+        <v>48</v>
+      </c>
+      <c r="AV22">
+        <v>48</v>
+      </c>
+      <c r="AW22">
+        <v>48</v>
+      </c>
+      <c r="AX22">
+        <v>48</v>
+      </c>
+      <c r="AY22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="14:51" x14ac:dyDescent="0.35">
+      <c r="N23" t="s">
+        <v>97</v>
+      </c>
+      <c r="O23" t="s">
+        <v>98</v>
+      </c>
+      <c r="P23" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>109</v>
+      </c>
+      <c r="R23" t="s">
+        <v>62</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="14:51" x14ac:dyDescent="0.35">
+      <c r="N24" t="s">
         <v>99</v>
       </c>
-      <c r="P21" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>102</v>
-      </c>
-      <c r="R21" t="s">
-        <v>61</v>
-      </c>
-      <c r="S21">
-        <v>1300</v>
-      </c>
-      <c r="T21" s="1">
+      <c r="O24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>100</v>
+      </c>
+      <c r="R24" t="s">
+        <v>62</v>
+      </c>
+      <c r="S24">
+        <v>1400</v>
+      </c>
+      <c r="T24" s="1">
         <v>1438.1440129628147</v>
       </c>
-      <c r="U21" t="s">
-        <v>62</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>5.8201000000000001</v>
-      </c>
-      <c r="Y21">
-        <v>7.3064</v>
-      </c>
-      <c r="Z21">
-        <v>8.6916999999999991</v>
-      </c>
-      <c r="AA21">
-        <v>9.9760000000000009</v>
-      </c>
-      <c r="AB21">
-        <v>11.1593</v>
-      </c>
-      <c r="AC21">
-        <v>12.2416</v>
-      </c>
-      <c r="AD21">
-        <v>13.222899999999999</v>
-      </c>
-      <c r="AE21">
-        <v>14.103199999999998</v>
-      </c>
-      <c r="AF21">
-        <v>14.8825</v>
-      </c>
-      <c r="AG21">
-        <v>15.560799999999997</v>
-      </c>
-      <c r="AH21">
-        <v>16.138099999999998</v>
-      </c>
-      <c r="AI21">
-        <v>16.6144</v>
-      </c>
-      <c r="AJ21">
-        <v>16.989699999999999</v>
-      </c>
-      <c r="AK21">
-        <v>17.263999999999999</v>
-      </c>
-      <c r="AL21">
-        <v>17.4373</v>
-      </c>
-      <c r="AM21">
-        <v>17.509599999999995</v>
-      </c>
-      <c r="AN21">
-        <v>17.480900000000002</v>
-      </c>
-      <c r="AO21">
-        <v>17.351199999999999</v>
-      </c>
-      <c r="AP21">
-        <v>17.120500000000003</v>
-      </c>
-      <c r="AQ21">
-        <v>16.788799999999998</v>
-      </c>
-      <c r="AR21">
-        <v>16.356100000000001</v>
-      </c>
-      <c r="AS21">
-        <v>15.822399999999995</v>
-      </c>
-      <c r="AT21">
-        <v>15.1877</v>
-      </c>
-      <c r="AU21">
-        <v>14.451999999999995</v>
-      </c>
-      <c r="AV21">
-        <v>13.615300000000001</v>
-      </c>
-      <c r="AW21">
-        <v>12.677599999999996</v>
-      </c>
-      <c r="AX21">
-        <v>11.638900000000005</v>
-      </c>
-      <c r="AY21">
-        <v>10.4992</v>
+      <c r="U24" t="s">
+        <v>63</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>1.8201000000000001</v>
+      </c>
+      <c r="Y24">
+        <v>3.3064</v>
+      </c>
+      <c r="Z24">
+        <v>4.6916999999999991</v>
+      </c>
+      <c r="AA24">
+        <v>5.9760000000000009</v>
+      </c>
+      <c r="AB24">
+        <v>7.1593</v>
+      </c>
+      <c r="AC24">
+        <v>8.2416</v>
+      </c>
+      <c r="AD24">
+        <v>9.2228999999999992</v>
+      </c>
+      <c r="AE24">
+        <v>10.103199999999998</v>
+      </c>
+      <c r="AF24">
+        <v>10.8825</v>
+      </c>
+      <c r="AG24">
+        <v>11.560799999999997</v>
+      </c>
+      <c r="AH24">
+        <v>12.138099999999998</v>
+      </c>
+      <c r="AI24">
+        <v>12.6144</v>
+      </c>
+      <c r="AJ24">
+        <v>12.989699999999999</v>
+      </c>
+      <c r="AK24">
+        <v>13.263999999999999</v>
+      </c>
+      <c r="AL24">
+        <v>13.4373</v>
+      </c>
+      <c r="AM24">
+        <v>13.509599999999995</v>
+      </c>
+      <c r="AN24">
+        <v>13.480900000000002</v>
+      </c>
+      <c r="AO24">
+        <v>13.351199999999999</v>
+      </c>
+      <c r="AP24">
+        <v>13.120500000000003</v>
+      </c>
+      <c r="AQ24">
+        <v>12.788799999999998</v>
+      </c>
+      <c r="AR24">
+        <v>12.356100000000001</v>
+      </c>
+      <c r="AS24">
+        <v>11.822399999999995</v>
+      </c>
+      <c r="AT24">
+        <v>11.1877</v>
+      </c>
+      <c r="AU24">
+        <v>10.451999999999995</v>
+      </c>
+      <c r="AV24">
+        <v>9.6153000000000013</v>
+      </c>
+      <c r="AW24">
+        <v>8.6775999999999964</v>
+      </c>
+      <c r="AX24">
+        <v>7.6389000000000049</v>
+      </c>
+      <c r="AY24">
+        <v>6.4992000000000001</v>
       </c>
     </row>
   </sheetData>
